--- a/oci_result/1st_evaluation_Qwen3-32B.xlsx
+++ b/oci_result/1st_evaluation_Qwen3-32B.xlsx
@@ -69557,7 +69557,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -69567,7 +69567,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -69577,7 +69577,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -69587,7 +69587,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -69617,7 +69617,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -69627,7 +69627,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -69637,7 +69637,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -69647,7 +69647,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -69657,7 +69657,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -69667,7 +69667,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -69677,7 +69677,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -69697,7 +69697,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -69707,7 +69707,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -69717,7 +69717,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -69727,7 +69727,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -69737,7 +69737,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -69747,7 +69747,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -69757,7 +69757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -69777,7 +69777,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -69797,7 +69797,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -69807,7 +69807,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -69817,7 +69817,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -69827,7 +69827,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -69837,7 +69837,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -69857,7 +69857,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -69867,7 +69867,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -69877,7 +69877,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -69887,7 +69887,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -69897,7 +69897,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -69907,7 +69907,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -69917,7 +69917,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -69937,7 +69937,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -69947,7 +69947,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -69967,7 +69967,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -69977,7 +69977,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -69987,7 +69987,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -69997,7 +69997,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -70017,7 +70017,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -70027,7 +70027,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -70037,7 +70037,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -70047,7 +70047,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -70057,7 +70057,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -70067,7 +70067,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -70077,7 +70077,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -70097,7 +70097,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -70107,7 +70107,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -70117,7 +70117,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -70127,7 +70127,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -70137,7 +70137,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -70157,7 +70157,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -70177,7 +70177,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -70187,7 +70187,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -70197,7 +70197,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -70207,7 +70207,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -70217,7 +70217,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -70227,7 +70227,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -70237,7 +70237,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -70257,7 +70257,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -70267,7 +70267,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -70277,7 +70277,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -70287,7 +70287,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -70297,7 +70297,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -70307,7 +70307,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -70337,7 +70337,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -70347,7 +70347,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -70357,7 +70357,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -70367,7 +70367,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -70377,7 +70377,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -70387,7 +70387,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -70397,7 +70397,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -70417,7 +70417,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -70427,7 +70427,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -70437,7 +70437,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -70447,7 +70447,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -70457,7 +70457,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -70467,7 +70467,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -70477,7 +70477,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -70497,7 +70497,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -70517,7 +70517,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -70527,7 +70527,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -70537,7 +70537,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -70547,7 +70547,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -70557,7 +70557,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -70577,7 +70577,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -70587,7 +70587,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -70596,9 +70596,7 @@
           <t>SS0162_q_0375_0001</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
+      <c r="B106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -70607,7 +70605,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -70617,7 +70615,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -70627,7 +70625,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -70637,7 +70635,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -70647,7 +70645,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -70657,7 +70655,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -70667,7 +70665,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -70677,7 +70675,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -70687,7 +70685,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -70697,7 +70695,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -70707,7 +70705,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -70717,7 +70715,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -70726,9 +70724,7 @@
           <t>SS0182_q_0079_0002</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
+      <c r="B119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -70737,7 +70733,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -70747,7 +70743,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -70757,7 +70753,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -70766,9 +70762,7 @@
           <t>SS0183_q_0516_0002</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
+      <c r="B123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -70777,7 +70771,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -70786,9 +70780,7 @@
           <t>SS0184_q_0079_0001</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>0</v>
-      </c>
+      <c r="B125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -70796,9 +70788,7 @@
           <t>SS0184_q_0231_0001</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
+      <c r="B126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -70806,9 +70796,7 @@
           <t>SS0184_q_0236_0001</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
+      <c r="B127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -70816,9 +70804,7 @@
           <t>SS0184_q_0433_0002</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
+      <c r="B128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -70827,7 +70813,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -70837,7 +70823,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -70846,9 +70832,7 @@
           <t>SS0186_q_0183_0001</t>
         </is>
       </c>
-      <c r="B131" t="n">
-        <v>0</v>
-      </c>
+      <c r="B131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -70857,7 +70841,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -70867,7 +70851,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -70877,7 +70861,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
@@ -70887,7 +70871,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -70897,7 +70881,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -70907,7 +70891,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -70916,9 +70900,7 @@
           <t>SS0188_q_0289_0002</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>0</v>
-      </c>
+      <c r="B138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -70927,7 +70909,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -70937,7 +70919,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -70947,7 +70929,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -70957,7 +70939,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -70967,7 +70949,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -70977,7 +70959,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -70987,7 +70969,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -70997,7 +70979,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -71007,7 +70989,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -71017,7 +70999,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -71027,7 +71009,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -71037,7 +71019,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -71047,7 +71029,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
@@ -71057,7 +71039,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -71067,7 +71049,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -71077,7 +71059,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -71086,9 +71068,7 @@
           <t>SS0189_q_0040_0002</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>0</v>
-      </c>
+      <c r="B155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -71097,7 +71077,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -71107,7 +71087,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -71116,9 +71096,7 @@
           <t>SS0189_q_0130_0001</t>
         </is>
       </c>
-      <c r="B158" t="n">
-        <v>0</v>
-      </c>
+      <c r="B158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -71127,7 +71105,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -71137,7 +71115,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -71146,9 +71124,7 @@
           <t>SS0189_q_0154_0002</t>
         </is>
       </c>
-      <c r="B161" t="n">
-        <v>0</v>
-      </c>
+      <c r="B161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -71157,7 +71133,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -71167,7 +71143,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -71176,9 +71152,7 @@
           <t>SS0189_q_0259_0004</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>0</v>
-      </c>
+      <c r="B164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -71186,9 +71160,7 @@
           <t>SS0190_q_0435_0001</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>0</v>
-      </c>
+      <c r="B165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -71197,7 +71169,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -71206,9 +71178,7 @@
           <t>SS0190_q_0719_0001</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>0</v>
-      </c>
+      <c r="B167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -71217,7 +71187,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -71227,7 +71197,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -71236,9 +71206,7 @@
           <t>SS0191_q_0587_0002</t>
         </is>
       </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
+      <c r="B170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -71247,7 +71215,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -71257,7 +71225,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -71267,7 +71235,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -71277,7 +71245,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175">
@@ -71287,7 +71255,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -71297,7 +71265,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -71307,7 +71275,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -71317,7 +71285,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -71327,7 +71295,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -71337,7 +71305,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -71347,7 +71315,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -71357,7 +71325,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
@@ -71367,7 +71335,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -71377,7 +71345,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -71387,7 +71355,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -71397,7 +71365,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -71407,7 +71375,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -71417,7 +71385,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -71427,7 +71395,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
@@ -71437,7 +71405,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -71447,7 +71415,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
@@ -71457,7 +71425,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -71467,7 +71435,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -71477,7 +71445,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -71487,7 +71455,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
@@ -71496,9 +71464,7 @@
           <t>SS0196_q_0115_0003</t>
         </is>
       </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
+      <c r="B196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -71507,7 +71473,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -71517,7 +71483,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
@@ -71527,7 +71493,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -71537,7 +71503,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -71547,7 +71513,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -71557,7 +71523,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -71567,7 +71533,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -71577,7 +71543,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
@@ -71587,7 +71553,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -71597,7 +71563,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -71607,7 +71573,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -71617,7 +71583,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -71627,7 +71593,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -71637,7 +71603,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -71647,7 +71613,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
@@ -71657,7 +71623,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -71667,7 +71633,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -71677,7 +71643,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
@@ -71687,7 +71653,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -71697,7 +71663,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -71707,7 +71673,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -71717,7 +71683,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -71727,7 +71693,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -71737,7 +71703,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -71747,7 +71713,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -71757,7 +71723,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -71767,7 +71733,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -71777,7 +71743,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225">
@@ -71787,7 +71753,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
@@ -71797,7 +71763,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227">
@@ -71807,7 +71773,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -71817,7 +71783,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -71827,7 +71793,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -71837,7 +71803,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -71847,7 +71813,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232">
@@ -71857,7 +71823,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -71867,7 +71833,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -71877,7 +71843,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -71887,7 +71853,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -71896,9 +71862,7 @@
           <t>SS0200_q_0381_0001</t>
         </is>
       </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
+      <c r="B236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -71907,7 +71871,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -71917,7 +71881,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
@@ -71927,7 +71891,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -71937,7 +71901,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -71947,7 +71911,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -71957,7 +71921,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -71967,7 +71931,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -71977,7 +71941,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -71987,7 +71951,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246">
@@ -71997,7 +71961,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -72007,7 +71971,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248">
@@ -72017,7 +71981,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
@@ -72027,7 +71991,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -72037,7 +72001,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -72047,7 +72011,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
@@ -72057,7 +72021,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253">
@@ -72067,7 +72031,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254">
@@ -72077,7 +72041,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -72087,7 +72051,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -72097,7 +72061,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -72107,7 +72071,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -72117,7 +72081,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259">
@@ -72127,7 +72091,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -72137,7 +72101,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -72147,7 +72111,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -72157,7 +72121,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -72167,7 +72131,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
@@ -72176,9 +72140,7 @@
           <t>SS0205_q_0566_0002</t>
         </is>
       </c>
-      <c r="B264" t="n">
-        <v>0</v>
-      </c>
+      <c r="B264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -72187,7 +72149,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -72197,7 +72159,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267">
@@ -72207,7 +72169,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -72217,7 +72179,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
@@ -72227,7 +72189,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -72237,7 +72199,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -72247,7 +72209,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -72257,7 +72219,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -72267,7 +72229,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -72277,7 +72239,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -72287,7 +72249,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276">
@@ -72297,7 +72259,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277">
@@ -72307,7 +72269,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -72317,7 +72279,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -72327,7 +72289,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -72337,7 +72299,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -72347,7 +72309,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -72357,7 +72319,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -72367,7 +72329,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -72377,7 +72339,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285">
@@ -72387,7 +72349,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -72397,7 +72359,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -72407,7 +72369,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -72416,9 +72378,7 @@
           <t>SS0207_q_0184_0002</t>
         </is>
       </c>
-      <c r="B288" t="n">
-        <v>0</v>
-      </c>
+      <c r="B288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -72427,7 +72387,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -72437,7 +72397,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291">
@@ -72447,7 +72407,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -72457,7 +72417,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -72467,7 +72427,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -72477,7 +72437,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295">
@@ -72487,7 +72447,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -72497,7 +72457,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -72507,7 +72467,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298">
@@ -72517,7 +72477,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -72526,9 +72486,7 @@
           <t>SS0208_q_0272_0001</t>
         </is>
       </c>
-      <c r="B299" t="n">
-        <v>0</v>
-      </c>
+      <c r="B299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -72536,9 +72494,7 @@
           <t>SS0208_q_0509_0001</t>
         </is>
       </c>
-      <c r="B300" t="n">
-        <v>0</v>
-      </c>
+      <c r="B300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -72547,7 +72503,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -72557,7 +72513,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
@@ -72567,7 +72523,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -72576,9 +72532,7 @@
           <t>SS0208_q_0592_0001</t>
         </is>
       </c>
-      <c r="B304" t="n">
-        <v>0</v>
-      </c>
+      <c r="B304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -72586,9 +72540,7 @@
           <t>SS0208_q_0626_0001</t>
         </is>
       </c>
-      <c r="B305" t="n">
-        <v>0</v>
-      </c>
+      <c r="B305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -72597,7 +72549,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307">
@@ -72607,7 +72559,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -72617,7 +72569,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -72627,7 +72579,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310">
@@ -72637,7 +72589,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -72647,7 +72599,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -72657,7 +72609,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313">
@@ -72667,7 +72619,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -72677,7 +72629,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
@@ -72687,7 +72639,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316">
@@ -72697,7 +72649,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -72707,7 +72659,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -72717,7 +72669,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -72727,7 +72679,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320">
@@ -72737,7 +72689,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -72747,7 +72699,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -72756,9 +72708,7 @@
           <t>SS0215_q_0044_0001</t>
         </is>
       </c>
-      <c r="B322" t="n">
-        <v>0</v>
-      </c>
+      <c r="B322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -72766,9 +72716,7 @@
           <t>SS0215_q_0052_0001</t>
         </is>
       </c>
-      <c r="B323" t="n">
-        <v>0</v>
-      </c>
+      <c r="B323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -72777,7 +72725,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325">
@@ -72787,7 +72735,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
@@ -72797,7 +72745,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327">
@@ -72807,7 +72755,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -72816,9 +72764,7 @@
           <t>SS0215_q_0115_0002</t>
         </is>
       </c>
-      <c r="B328" t="n">
-        <v>0</v>
-      </c>
+      <c r="B328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -72826,9 +72772,7 @@
           <t>SS0215_q_0151_0001</t>
         </is>
       </c>
-      <c r="B329" t="n">
-        <v>0</v>
-      </c>
+      <c r="B329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -72837,7 +72781,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331">
@@ -72847,7 +72791,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332">
@@ -72857,7 +72801,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -72867,7 +72811,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334">
@@ -72877,7 +72821,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335">
@@ -72887,7 +72831,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -72897,7 +72841,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -72907,7 +72851,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338">
@@ -72917,7 +72861,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339">
@@ -72927,7 +72871,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -72937,7 +72881,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -72947,7 +72891,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -72957,7 +72901,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -72967,7 +72911,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -72977,7 +72921,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345">
@@ -72987,7 +72931,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -72997,7 +72941,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347">
@@ -73007,7 +72951,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -73017,7 +72961,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -73027,7 +72971,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -73037,7 +72981,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -73047,7 +72991,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -73057,7 +73001,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -73067,7 +73011,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -73077,7 +73021,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -73087,7 +73031,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356">
@@ -73097,7 +73041,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357">
@@ -73107,7 +73051,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -73117,7 +73061,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -73126,9 +73070,7 @@
           <t>SS0216_q_0418_0004</t>
         </is>
       </c>
-      <c r="B359" t="n">
-        <v>0</v>
-      </c>
+      <c r="B359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -73136,9 +73078,7 @@
           <t>SS0216_q_0426_0005</t>
         </is>
       </c>
-      <c r="B360" t="n">
-        <v>0</v>
-      </c>
+      <c r="B360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -73147,7 +73087,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
@@ -73157,7 +73097,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363">
@@ -73167,7 +73107,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -73177,7 +73117,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -73187,7 +73127,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366">
@@ -73197,7 +73137,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -73207,7 +73147,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -73217,7 +73157,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -73226,9 +73166,7 @@
           <t>SS0217_q_0449_0001</t>
         </is>
       </c>
-      <c r="B369" t="n">
-        <v>0</v>
-      </c>
+      <c r="B369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -73237,7 +73175,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -73247,7 +73185,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -73257,7 +73195,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -73267,7 +73205,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -73277,7 +73215,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375">
@@ -73287,7 +73225,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376">
@@ -73297,7 +73235,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377">
@@ -73307,7 +73245,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -73317,7 +73255,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379">
@@ -73327,7 +73265,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380">
@@ -73337,7 +73275,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381">
@@ -73347,7 +73285,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382">
@@ -73356,9 +73294,7 @@
           <t>SS0217_q_0560_0001</t>
         </is>
       </c>
-      <c r="B382" t="n">
-        <v>0</v>
-      </c>
+      <c r="B382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -73367,7 +73303,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384">
@@ -73377,7 +73313,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385">
@@ -73386,9 +73322,7 @@
           <t>SS0224_q_0042_0001</t>
         </is>
       </c>
-      <c r="B385" t="n">
-        <v>0</v>
-      </c>
+      <c r="B385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -73396,9 +73330,7 @@
           <t>SS0224_q_0256_0001</t>
         </is>
       </c>
-      <c r="B386" t="n">
-        <v>0</v>
-      </c>
+      <c r="B386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -73407,7 +73339,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -73416,9 +73348,7 @@
           <t>SS0227_q_0095_0001</t>
         </is>
       </c>
-      <c r="B388" t="n">
-        <v>0</v>
-      </c>
+      <c r="B388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -73427,7 +73357,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -73436,9 +73366,7 @@
           <t>SS0227_q_0360_0002</t>
         </is>
       </c>
-      <c r="B390" t="n">
-        <v>0</v>
-      </c>
+      <c r="B390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -73446,9 +73374,7 @@
           <t>SS0227_q_0400_0002</t>
         </is>
       </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
+      <c r="B391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -73457,7 +73383,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -73466,9 +73392,7 @@
           <t>SS0228_q_0081_0002</t>
         </is>
       </c>
-      <c r="B393" t="n">
-        <v>0</v>
-      </c>
+      <c r="B393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -73477,7 +73401,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
@@ -73487,7 +73411,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -73497,7 +73421,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -73507,7 +73431,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -73516,9 +73440,7 @@
           <t>SS0232_q_0043_0002</t>
         </is>
       </c>
-      <c r="B398" t="n">
-        <v>0</v>
-      </c>
+      <c r="B398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -73526,9 +73448,7 @@
           <t>SS0232_q_0066_0001</t>
         </is>
       </c>
-      <c r="B399" t="n">
-        <v>0</v>
-      </c>
+      <c r="B399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -73536,9 +73456,7 @@
           <t>SS0232_q_0080_0002</t>
         </is>
       </c>
-      <c r="B400" t="n">
-        <v>0</v>
-      </c>
+      <c r="B400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -73547,7 +73465,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -73557,7 +73475,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403">
@@ -73567,7 +73485,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404">
@@ -73577,7 +73495,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -73587,7 +73505,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406">
@@ -73597,7 +73515,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407">
@@ -73607,7 +73525,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -73617,7 +73535,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409">
@@ -73627,7 +73545,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -73637,7 +73555,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411">
@@ -73647,7 +73565,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412">
@@ -73656,9 +73574,7 @@
           <t>SS0237_q_0270_0001</t>
         </is>
       </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
+      <c r="B412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -73666,9 +73582,7 @@
           <t>SS0237_q_0389_0002</t>
         </is>
       </c>
-      <c r="B413" t="n">
-        <v>0</v>
-      </c>
+      <c r="B413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -73677,7 +73591,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415">
@@ -73686,9 +73600,7 @@
           <t>SS0237_q_0428_0001</t>
         </is>
       </c>
-      <c r="B415" t="n">
-        <v>0</v>
-      </c>
+      <c r="B415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -73697,7 +73609,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417">
@@ -73706,9 +73618,7 @@
           <t>SS0237_q_0433_0001</t>
         </is>
       </c>
-      <c r="B417" t="n">
-        <v>0</v>
-      </c>
+      <c r="B417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -73717,7 +73627,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419">
@@ -73727,7 +73637,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -73736,9 +73646,7 @@
           <t>SS0237_q_0643_0002</t>
         </is>
       </c>
-      <c r="B420" t="n">
-        <v>0</v>
-      </c>
+      <c r="B420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -73746,9 +73654,7 @@
           <t>SS0237_q_0668_0001</t>
         </is>
       </c>
-      <c r="B421" t="n">
-        <v>0</v>
-      </c>
+      <c r="B421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -73757,7 +73663,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -73767,7 +73673,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -73776,9 +73682,7 @@
           <t>SS0242_q_0034_0002</t>
         </is>
       </c>
-      <c r="B424" t="n">
-        <v>0</v>
-      </c>
+      <c r="B424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -73787,7 +73691,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -73796,9 +73700,7 @@
           <t>SS0242_q_0075_0001</t>
         </is>
       </c>
-      <c r="B426" t="n">
-        <v>0</v>
-      </c>
+      <c r="B426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -73806,9 +73708,7 @@
           <t>SS0242_q_0085_0001</t>
         </is>
       </c>
-      <c r="B427" t="n">
-        <v>0</v>
-      </c>
+      <c r="B427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -73816,9 +73716,7 @@
           <t>SS0242_q_0151_0001</t>
         </is>
       </c>
-      <c r="B428" t="n">
-        <v>0</v>
-      </c>
+      <c r="B428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -73826,9 +73724,7 @@
           <t>SS0242_q_0168_0002</t>
         </is>
       </c>
-      <c r="B429" t="n">
-        <v>0</v>
-      </c>
+      <c r="B429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -73837,7 +73733,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431">
@@ -73847,7 +73743,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
@@ -73856,9 +73752,7 @@
           <t>SS0243_q_0154_0003</t>
         </is>
       </c>
-      <c r="B432" t="n">
-        <v>0</v>
-      </c>
+      <c r="B432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -73867,7 +73761,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -73877,7 +73771,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -73886,9 +73780,7 @@
           <t>SS0244_q_0276_0001</t>
         </is>
       </c>
-      <c r="B435" t="n">
-        <v>0</v>
-      </c>
+      <c r="B435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -73897,7 +73789,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -73907,7 +73799,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -73916,9 +73808,7 @@
           <t>SS0244_q_0381_0002</t>
         </is>
       </c>
-      <c r="B438" t="n">
-        <v>0</v>
-      </c>
+      <c r="B438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -73927,7 +73817,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440">
@@ -73937,7 +73827,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -73947,7 +73837,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442">
@@ -73957,7 +73847,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="443">
@@ -73967,7 +73857,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444">
@@ -73977,7 +73867,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -73987,7 +73877,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446">
@@ -73997,7 +73887,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -74007,7 +73897,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -74017,7 +73907,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449">
@@ -74027,7 +73917,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -74037,7 +73927,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451">
@@ -74047,7 +73937,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -74056,9 +73946,7 @@
           <t>SS0249_q_0045_0001</t>
         </is>
       </c>
-      <c r="B452" t="n">
-        <v>0</v>
-      </c>
+      <c r="B452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -74067,7 +73955,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -74077,7 +73965,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -74087,7 +73975,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -74097,7 +73985,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="457">
@@ -74107,7 +73995,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="458">
@@ -74117,7 +74005,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
@@ -74127,7 +74015,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -74137,7 +74025,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -74147,7 +74035,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -74157,7 +74045,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -74167,7 +74055,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -74177,7 +74065,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="465">
@@ -74187,7 +74075,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -74197,7 +74085,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -74207,7 +74095,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -74217,7 +74105,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -74227,7 +74115,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -74237,7 +74125,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -74247,7 +74135,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -74257,7 +74145,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473">
@@ -74267,7 +74155,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -74277,7 +74165,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -74287,7 +74175,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -74297,7 +74185,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -74307,7 +74195,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -74317,7 +74205,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479">
@@ -74327,7 +74215,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="480">
@@ -74337,7 +74225,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -74347,7 +74235,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -74357,7 +74245,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -74367,7 +74255,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -74377,7 +74265,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -74387,7 +74275,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486">
@@ -74397,7 +74285,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487">
@@ -74407,7 +74295,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -74417,7 +74305,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489">
@@ -74427,7 +74315,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -74437,7 +74325,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -74447,7 +74335,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -74457,7 +74345,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493">
@@ -74467,7 +74355,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494">
@@ -74477,7 +74365,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -74487,7 +74375,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496">
@@ -74497,7 +74385,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -74507,7 +74395,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -74517,7 +74405,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499">
@@ -74527,7 +74415,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -74537,7 +74425,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501">
@@ -74547,7 +74435,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -74557,7 +74445,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -74567,7 +74455,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504">
@@ -74576,9 +74464,7 @@
           <t>SS0251_q_0242_0001</t>
         </is>
       </c>
-      <c r="B504" t="n">
-        <v>0</v>
-      </c>
+      <c r="B504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -74587,7 +74473,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="506">
@@ -74597,7 +74483,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -74607,7 +74493,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -74617,7 +74503,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -74627,7 +74513,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -74637,7 +74523,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -74647,7 +74533,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -74657,7 +74543,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513">
@@ -74667,7 +74553,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -74677,7 +74563,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515">
@@ -74687,7 +74573,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516">
@@ -74697,7 +74583,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -74707,7 +74593,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518">
@@ -74717,7 +74603,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -74727,7 +74613,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -74736,9 +74622,7 @@
           <t>SS0251_q_0379_0002</t>
         </is>
       </c>
-      <c r="B520" t="n">
-        <v>0</v>
-      </c>
+      <c r="B520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -74747,7 +74631,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522">
@@ -74757,7 +74641,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -74767,7 +74651,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -74777,7 +74661,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525">
@@ -74787,7 +74671,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526">
@@ -74797,7 +74681,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527">
@@ -74807,7 +74691,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -74817,7 +74701,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -74827,7 +74711,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -74837,7 +74721,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -74847,7 +74731,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532">
@@ -74857,7 +74741,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -74867,7 +74751,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534">
@@ -74877,7 +74761,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535">
@@ -74887,7 +74771,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -74897,7 +74781,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537">
@@ -74907,7 +74791,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -74917,7 +74801,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="539">
@@ -74927,7 +74811,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540">
@@ -74937,7 +74821,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541">
@@ -74947,7 +74831,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542">
@@ -74957,7 +74841,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543">
@@ -74967,7 +74851,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544">
@@ -74977,7 +74861,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545">
@@ -74987,7 +74871,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -74997,7 +74881,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -75007,7 +74891,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -75017,7 +74901,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -75027,7 +74911,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -75037,7 +74921,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -75047,7 +74931,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -75057,7 +74941,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -75067,7 +74951,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -75077,7 +74961,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555">
@@ -75087,7 +74971,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556">
@@ -75097,7 +74981,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -75107,7 +74991,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558">
@@ -75117,7 +75001,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -75127,7 +75011,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -75137,7 +75021,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -75147,7 +75031,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -75157,7 +75041,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -75167,7 +75051,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564">
@@ -75177,7 +75061,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -75187,7 +75071,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -75197,7 +75081,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567">
@@ -75207,7 +75091,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -75217,7 +75101,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -75227,7 +75111,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -75237,7 +75121,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -75247,7 +75131,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -75257,7 +75141,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573">
@@ -75267,7 +75151,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -75277,7 +75161,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575">
@@ -75287,7 +75171,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -75297,7 +75181,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577">
@@ -75306,9 +75190,7 @@
           <t>SS0260_q_0611_0003</t>
         </is>
       </c>
-      <c r="B577" t="n">
-        <v>0</v>
-      </c>
+      <c r="B577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -75317,7 +75199,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -75327,7 +75209,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580">
@@ -75336,9 +75218,7 @@
           <t>SS03015_q_0047_0001</t>
         </is>
       </c>
-      <c r="B580" t="n">
-        <v>0</v>
-      </c>
+      <c r="B580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -75347,7 +75227,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -75357,7 +75237,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -75366,9 +75246,7 @@
           <t>SS03015_q_0114_0001</t>
         </is>
       </c>
-      <c r="B583" t="n">
-        <v>0</v>
-      </c>
+      <c r="B583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -75377,7 +75255,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585">
@@ -75387,7 +75265,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586">
@@ -75397,7 +75275,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -75407,7 +75285,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588">
@@ -75417,7 +75295,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589">
@@ -75427,7 +75305,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -75437,7 +75315,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591">
@@ -75447,7 +75325,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -75457,7 +75335,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -75467,7 +75345,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -75477,7 +75355,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -75487,7 +75365,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -75497,7 +75375,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -75506,9 +75384,7 @@
           <t>SS0317_q_0109_0001</t>
         </is>
       </c>
-      <c r="B597" t="n">
-        <v>0</v>
-      </c>
+      <c r="B597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -75516,9 +75392,7 @@
           <t>SS0317_q_0110_0001</t>
         </is>
       </c>
-      <c r="B598" t="n">
-        <v>0</v>
-      </c>
+      <c r="B598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -75527,7 +75401,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600">
@@ -75537,7 +75411,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="601">
@@ -75547,7 +75421,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -75557,7 +75431,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -75566,9 +75440,7 @@
           <t>SS0318_q_0081_0001</t>
         </is>
       </c>
-      <c r="B603" t="n">
-        <v>0</v>
-      </c>
+      <c r="B603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -75577,7 +75449,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605">
@@ -75587,7 +75459,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="606">
@@ -75597,7 +75469,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -75607,7 +75479,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="608">
@@ -75617,7 +75489,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="609">
@@ -75627,7 +75499,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="610">
@@ -75637,7 +75509,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -75647,7 +75519,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -75657,7 +75529,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="613">
@@ -75667,7 +75539,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614">
@@ -75677,7 +75549,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="615">
@@ -75687,7 +75559,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="616">
@@ -75697,7 +75569,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -75707,7 +75579,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="618">
@@ -75717,7 +75589,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="619">
@@ -75727,7 +75599,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="620">
@@ -75737,7 +75609,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="621">
@@ -75747,7 +75619,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -75757,7 +75629,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="623">
@@ -75766,9 +75638,7 @@
           <t>SS0364_q_0120_0001</t>
         </is>
       </c>
-      <c r="B623" t="n">
-        <v>0</v>
-      </c>
+      <c r="B623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -75777,7 +75647,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -75786,9 +75656,7 @@
           <t>SS0364_q_0142_0001</t>
         </is>
       </c>
-      <c r="B625" t="n">
-        <v>0</v>
-      </c>
+      <c r="B625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -75797,7 +75665,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -75806,9 +75674,7 @@
           <t>SS0364_q_0194_0001</t>
         </is>
       </c>
-      <c r="B627" t="n">
-        <v>0</v>
-      </c>
+      <c r="B627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -75816,9 +75682,7 @@
           <t>SS0364_q_0201_0001</t>
         </is>
       </c>
-      <c r="B628" t="n">
-        <v>0</v>
-      </c>
+      <c r="B628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -75826,9 +75690,7 @@
           <t>SS0364_q_0217_0002</t>
         </is>
       </c>
-      <c r="B629" t="n">
-        <v>0</v>
-      </c>
+      <c r="B629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -75837,7 +75699,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -75846,9 +75708,7 @@
           <t>SS0381_q_0234_0004</t>
         </is>
       </c>
-      <c r="B631" t="n">
-        <v>0</v>
-      </c>
+      <c r="B631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -75857,7 +75717,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -75867,7 +75727,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -75877,7 +75737,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -75887,7 +75747,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -75897,7 +75757,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637">
@@ -75907,7 +75767,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="638">
@@ -75917,7 +75777,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -75927,7 +75787,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640">
@@ -75937,7 +75797,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -75947,7 +75807,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642">
@@ -75957,7 +75817,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -75967,7 +75827,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="644">
@@ -75977,7 +75837,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="645">
@@ -75987,7 +75847,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -75997,7 +75857,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="647">
@@ -76007,7 +75867,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -76017,7 +75877,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -76027,7 +75887,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -76037,7 +75897,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="651">
@@ -76046,9 +75906,7 @@
           <t>SS0386_q_0109_0002</t>
         </is>
       </c>
-      <c r="B651" t="n">
-        <v>0</v>
-      </c>
+      <c r="B651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -76057,7 +75915,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="653">
@@ -76067,7 +75925,7 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="654">
@@ -76077,7 +75935,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -76087,7 +75945,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -76097,7 +75955,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657">
@@ -76107,7 +75965,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658">
@@ -76117,7 +75975,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="659">
@@ -76127,7 +75985,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -76137,7 +75995,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -76147,7 +76005,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="662">
@@ -76157,7 +76015,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -76167,7 +76025,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664">
@@ -76177,7 +76035,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665">
@@ -76187,7 +76045,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666">
@@ -76197,7 +76055,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667">
@@ -76207,7 +76065,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668">
@@ -76217,7 +76075,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669">
@@ -76227,7 +76085,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670">
@@ -76237,7 +76095,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671">
@@ -76247,7 +76105,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="672">
@@ -76257,7 +76115,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -76266,9 +76124,7 @@
           <t>SS0394_q_0236_0002</t>
         </is>
       </c>
-      <c r="B673" t="n">
-        <v>0</v>
-      </c>
+      <c r="B673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -76277,7 +76133,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -76287,7 +76143,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="676">
@@ -76297,7 +76153,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677">
@@ -76307,7 +76163,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678">
@@ -76317,7 +76173,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -76327,7 +76183,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680">
@@ -76337,7 +76193,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681">
@@ -76347,7 +76203,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682">
@@ -76357,7 +76213,7 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="683">
@@ -76367,7 +76223,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684">
@@ -76377,7 +76233,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685">
@@ -76387,7 +76243,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="686">
@@ -76397,7 +76253,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -76407,7 +76263,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="688">
@@ -76417,7 +76273,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="689">
@@ -76427,7 +76283,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690">
@@ -76437,7 +76293,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691">
@@ -76447,7 +76303,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -76457,7 +76313,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="693">
@@ -76467,7 +76323,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="694">
@@ -76477,7 +76333,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -76487,7 +76343,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="696">
@@ -76497,7 +76353,7 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="697">
@@ -76507,7 +76363,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="698">
@@ -76517,7 +76373,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="699">
@@ -76527,7 +76383,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="700">
@@ -76537,7 +76393,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="701">
@@ -76547,7 +76403,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -76557,7 +76413,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="703">
@@ -76567,7 +76423,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="704">
@@ -76577,7 +76433,7 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705">
@@ -76587,7 +76443,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -76597,7 +76453,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -76607,7 +76463,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="708">
@@ -76617,7 +76473,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709">
@@ -76627,7 +76483,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="710">
@@ -76637,7 +76493,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="711">
@@ -76647,7 +76503,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -76657,7 +76513,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -76667,7 +76523,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="714">
@@ -76677,7 +76533,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -76687,7 +76543,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="716">
@@ -76697,7 +76553,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="717">
@@ -76707,7 +76563,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="718">
@@ -76717,7 +76573,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719">
@@ -76727,7 +76583,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -76736,9 +76592,7 @@
           <t>SS0397_q_0088_0002</t>
         </is>
       </c>
-      <c r="B720" t="n">
-        <v>0</v>
-      </c>
+      <c r="B720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -76747,7 +76601,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722">
@@ -76757,7 +76611,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -76767,7 +76621,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="724">
@@ -76777,7 +76631,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -76787,7 +76641,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="726">
@@ -76797,7 +76651,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="727">
@@ -76807,7 +76661,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -76817,7 +76671,7 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -76827,7 +76681,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -76837,7 +76691,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="731">
@@ -76847,7 +76701,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -76857,7 +76711,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -76867,7 +76721,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="734">
@@ -76877,7 +76731,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735">
@@ -76886,9 +76740,7 @@
           <t>SS0397_q_0135_0001</t>
         </is>
       </c>
-      <c r="B735" t="n">
-        <v>0</v>
-      </c>
+      <c r="B735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -76897,7 +76749,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737">
@@ -76907,7 +76759,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="738">
@@ -76917,7 +76769,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="739">
@@ -76927,7 +76779,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="740">
@@ -76937,7 +76789,7 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="741">
@@ -76947,7 +76799,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742">
@@ -76957,7 +76809,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -76967,7 +76819,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="744">
@@ -76977,7 +76829,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="745">
@@ -76987,7 +76839,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746">
@@ -76997,7 +76849,7 @@
         </is>
       </c>
       <c r="B746" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="747">
@@ -77007,7 +76859,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="748">
@@ -77017,7 +76869,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -77027,7 +76879,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -77036,9 +76888,7 @@
           <t>SS0397_q_0179_0002</t>
         </is>
       </c>
-      <c r="B750" t="n">
-        <v>0</v>
-      </c>
+      <c r="B750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -77047,7 +76897,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="752">
@@ -77057,7 +76907,7 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -77067,7 +76917,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="754">
@@ -77077,7 +76927,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="755">
@@ -77087,7 +76937,7 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
@@ -77097,7 +76947,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="757">
@@ -77107,7 +76957,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -77117,7 +76967,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -77127,7 +76977,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -77137,7 +76987,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -77147,7 +76997,7 @@
         </is>
       </c>
       <c r="B761" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -77157,7 +77007,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="763">
@@ -77167,7 +77017,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="764">
@@ -77177,7 +77027,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765">
@@ -77187,7 +77037,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="766">
@@ -77197,7 +77047,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="767">
@@ -77207,7 +77057,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="768">
@@ -77217,7 +77067,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -77227,7 +77077,7 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -77237,7 +77087,7 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -77247,7 +77097,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -77257,7 +77107,7 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="773">
@@ -77267,7 +77117,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774">
@@ -77277,7 +77127,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="775">
@@ -77287,7 +77137,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="776">
@@ -77297,7 +77147,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777">
@@ -77307,7 +77157,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="778">
@@ -77317,7 +77167,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -77327,7 +77177,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="780">
@@ -77337,7 +77187,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="781">
@@ -77347,7 +77197,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="782">
@@ -77357,7 +77207,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783">
@@ -77367,7 +77217,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -77377,7 +77227,7 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="785">
@@ -77387,7 +77237,7 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -77397,7 +77247,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="787">
@@ -77407,7 +77257,7 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="788">
@@ -77417,7 +77267,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="789">
@@ -77427,7 +77277,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="790">
@@ -77436,9 +77286,7 @@
           <t>SS0400_q_0105_0002</t>
         </is>
       </c>
-      <c r="B790" t="n">
-        <v>0</v>
-      </c>
+      <c r="B790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -77447,7 +77295,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="792">
@@ -77457,7 +77305,7 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -77467,7 +77315,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="794">
@@ -77477,7 +77325,7 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795">
@@ -77487,7 +77335,7 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="796">
@@ -77497,7 +77345,7 @@
         </is>
       </c>
       <c r="B796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797">
@@ -77507,7 +77355,7 @@
         </is>
       </c>
       <c r="B797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798">
@@ -77517,7 +77365,7 @@
         </is>
       </c>
       <c r="B798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799">
@@ -77527,7 +77375,7 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -77537,7 +77385,7 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801">
@@ -77547,7 +77395,7 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -77557,7 +77405,7 @@
         </is>
       </c>
       <c r="B802" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="803">
@@ -77567,7 +77415,7 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804">
@@ -77577,7 +77425,7 @@
         </is>
       </c>
       <c r="B804" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="805">
@@ -77587,7 +77435,7 @@
         </is>
       </c>
       <c r="B805" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="806">
@@ -77597,7 +77445,7 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="807">
@@ -77607,7 +77455,7 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="808">
@@ -77617,7 +77465,7 @@
         </is>
       </c>
       <c r="B808" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="809">
@@ -77627,7 +77475,7 @@
         </is>
       </c>
       <c r="B809" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="810">
@@ -77637,7 +77485,7 @@
         </is>
       </c>
       <c r="B810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -77647,7 +77495,7 @@
         </is>
       </c>
       <c r="B811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -77657,7 +77505,7 @@
         </is>
       </c>
       <c r="B812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813">
@@ -77667,7 +77515,7 @@
         </is>
       </c>
       <c r="B813" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="814">
@@ -77677,7 +77525,7 @@
         </is>
       </c>
       <c r="B814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815">
@@ -77687,7 +77535,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="816">
@@ -77697,7 +77545,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817">
@@ -77706,9 +77554,7 @@
           <t>SS0405_q_0296_0003</t>
         </is>
       </c>
-      <c r="B817" t="n">
-        <v>0</v>
-      </c>
+      <c r="B817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -77716,9 +77562,7 @@
           <t>SS0405_q_0298_0001</t>
         </is>
       </c>
-      <c r="B818" t="n">
-        <v>0</v>
-      </c>
+      <c r="B818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -77727,7 +77571,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="820">
@@ -77737,7 +77581,7 @@
         </is>
       </c>
       <c r="B820" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="821">
@@ -77747,7 +77591,7 @@
         </is>
       </c>
       <c r="B821" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="822">
@@ -77757,7 +77601,7 @@
         </is>
       </c>
       <c r="B822" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="823">
@@ -77767,7 +77611,7 @@
         </is>
       </c>
       <c r="B823" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="824">
@@ -77777,7 +77621,7 @@
         </is>
       </c>
       <c r="B824" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="825">
@@ -77787,7 +77631,7 @@
         </is>
       </c>
       <c r="B825" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="826">
@@ -77797,7 +77641,7 @@
         </is>
       </c>
       <c r="B826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827">
@@ -77807,7 +77651,7 @@
         </is>
       </c>
       <c r="B827" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="828">
@@ -77817,7 +77661,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="829">
@@ -77827,7 +77671,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -77837,7 +77681,7 @@
         </is>
       </c>
       <c r="B830" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="831">
@@ -77847,7 +77691,7 @@
         </is>
       </c>
       <c r="B831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
@@ -77857,7 +77701,7 @@
         </is>
       </c>
       <c r="B832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -77867,7 +77711,7 @@
         </is>
       </c>
       <c r="B833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -77877,7 +77721,7 @@
         </is>
       </c>
       <c r="B834" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="835">
@@ -77887,7 +77731,7 @@
         </is>
       </c>
       <c r="B835" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="836">
@@ -77897,7 +77741,7 @@
         </is>
       </c>
       <c r="B836" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="837">
@@ -77907,7 +77751,7 @@
         </is>
       </c>
       <c r="B837" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="838">
@@ -77917,7 +77761,7 @@
         </is>
       </c>
       <c r="B838" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -77927,7 +77771,7 @@
         </is>
       </c>
       <c r="B839" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -77937,7 +77781,7 @@
         </is>
       </c>
       <c r="B840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -77947,7 +77791,7 @@
         </is>
       </c>
       <c r="B841" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="842">
@@ -77957,7 +77801,7 @@
         </is>
       </c>
       <c r="B842" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="843">
@@ -77967,7 +77811,7 @@
         </is>
       </c>
       <c r="B843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -77977,7 +77821,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="845">
@@ -77987,7 +77831,7 @@
         </is>
       </c>
       <c r="B845" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -77997,7 +77841,7 @@
         </is>
       </c>
       <c r="B846" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -78007,7 +77851,7 @@
         </is>
       </c>
       <c r="B847" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="848">
@@ -78017,7 +77861,7 @@
         </is>
       </c>
       <c r="B848" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="849">
@@ -78027,7 +77871,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="850">
@@ -78037,7 +77881,7 @@
         </is>
       </c>
       <c r="B850" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -78047,7 +77891,7 @@
         </is>
       </c>
       <c r="B851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852">
@@ -78057,7 +77901,7 @@
         </is>
       </c>
       <c r="B852" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="853">
@@ -78067,7 +77911,7 @@
         </is>
       </c>
       <c r="B853" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -78077,7 +77921,7 @@
         </is>
       </c>
       <c r="B854" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -78087,7 +77931,7 @@
         </is>
       </c>
       <c r="B855" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="856">
@@ -78097,7 +77941,7 @@
         </is>
       </c>
       <c r="B856" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="857">
@@ -78106,9 +77950,7 @@
           <t>SS0408_q_0142_0003</t>
         </is>
       </c>
-      <c r="B857" t="n">
-        <v>0</v>
-      </c>
+      <c r="B857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
@@ -78116,9 +77958,7 @@
           <t>SS0408_q_0143_0002</t>
         </is>
       </c>
-      <c r="B858" t="n">
-        <v>0</v>
-      </c>
+      <c r="B858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
@@ -78127,7 +77967,7 @@
         </is>
       </c>
       <c r="B859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -78137,7 +77977,7 @@
         </is>
       </c>
       <c r="B860" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="861">
@@ -78147,7 +77987,7 @@
         </is>
       </c>
       <c r="B861" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="862">
@@ -78157,7 +77997,7 @@
         </is>
       </c>
       <c r="B862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863">
@@ -78167,7 +78007,7 @@
         </is>
       </c>
       <c r="B863" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="864">
@@ -78177,7 +78017,7 @@
         </is>
       </c>
       <c r="B864" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="865">
@@ -78186,9 +78026,7 @@
           <t>SS0408_q_0368_0001</t>
         </is>
       </c>
-      <c r="B865" t="n">
-        <v>0</v>
-      </c>
+      <c r="B865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
@@ -78197,7 +78035,7 @@
         </is>
       </c>
       <c r="B866" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="867">
@@ -78206,9 +78044,7 @@
           <t>SS0408_q_0443_0002</t>
         </is>
       </c>
-      <c r="B867" t="n">
-        <v>0</v>
-      </c>
+      <c r="B867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -78217,7 +78053,7 @@
         </is>
       </c>
       <c r="B868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -78226,9 +78062,7 @@
           <t>SS0408_q_0474_0002</t>
         </is>
       </c>
-      <c r="B869" t="n">
-        <v>0</v>
-      </c>
+      <c r="B869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
@@ -78237,7 +78071,7 @@
         </is>
       </c>
       <c r="B870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871">
@@ -78247,7 +78081,7 @@
         </is>
       </c>
       <c r="B871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872">
@@ -78257,7 +78091,7 @@
         </is>
       </c>
       <c r="B872" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="873">
@@ -78267,7 +78101,7 @@
         </is>
       </c>
       <c r="B873" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="874">
@@ -78277,7 +78111,7 @@
         </is>
       </c>
       <c r="B874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875">
@@ -78287,7 +78121,7 @@
         </is>
       </c>
       <c r="B875" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="876">
@@ -78296,9 +78130,7 @@
           <t>SS0410_q_0352_0001</t>
         </is>
       </c>
-      <c r="B876" t="n">
-        <v>0</v>
-      </c>
+      <c r="B876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
@@ -78307,7 +78139,7 @@
         </is>
       </c>
       <c r="B877" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878">
@@ -78317,7 +78149,7 @@
         </is>
       </c>
       <c r="B878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879">
@@ -78327,7 +78159,7 @@
         </is>
       </c>
       <c r="B879" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="880">
@@ -78337,7 +78169,7 @@
         </is>
       </c>
       <c r="B880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881">
@@ -78347,7 +78179,7 @@
         </is>
       </c>
       <c r="B881" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="882">
@@ -78357,7 +78189,7 @@
         </is>
       </c>
       <c r="B882" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="883">
@@ -78367,7 +78199,7 @@
         </is>
       </c>
       <c r="B883" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="884">
@@ -78377,7 +78209,7 @@
         </is>
       </c>
       <c r="B884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -78387,7 +78219,7 @@
         </is>
       </c>
       <c r="B885" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -78397,7 +78229,7 @@
         </is>
       </c>
       <c r="B886" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="887">
@@ -78407,7 +78239,7 @@
         </is>
       </c>
       <c r="B887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888">
@@ -78417,7 +78249,7 @@
         </is>
       </c>
       <c r="B888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889">
@@ -78427,7 +78259,7 @@
         </is>
       </c>
       <c r="B889" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="890">
@@ -78437,7 +78269,7 @@
         </is>
       </c>
       <c r="B890" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -78447,7 +78279,7 @@
         </is>
       </c>
       <c r="B891" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="892">
@@ -78457,7 +78289,7 @@
         </is>
       </c>
       <c r="B892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893">
@@ -78466,9 +78298,7 @@
           <t>SS0412_q_0055_0002</t>
         </is>
       </c>
-      <c r="B893" t="n">
-        <v>0</v>
-      </c>
+      <c r="B893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
@@ -78477,7 +78307,7 @@
         </is>
       </c>
       <c r="B894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895">
@@ -78487,7 +78317,7 @@
         </is>
       </c>
       <c r="B895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -78497,7 +78327,7 @@
         </is>
       </c>
       <c r="B896" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="897">
@@ -78507,7 +78337,7 @@
         </is>
       </c>
       <c r="B897" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="898">
@@ -78516,9 +78346,7 @@
           <t>SS0412_q_0314_0002</t>
         </is>
       </c>
-      <c r="B898" t="n">
-        <v>0</v>
-      </c>
+      <c r="B898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
@@ -78527,7 +78355,7 @@
         </is>
       </c>
       <c r="B899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900">
@@ -78536,9 +78364,7 @@
           <t>SS0412_q_0348_0001</t>
         </is>
       </c>
-      <c r="B900" t="n">
-        <v>0</v>
-      </c>
+      <c r="B900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
@@ -78547,7 +78373,7 @@
         </is>
       </c>
       <c r="B901" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="902">
@@ -78557,7 +78383,7 @@
         </is>
       </c>
       <c r="B902" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -78567,7 +78393,7 @@
         </is>
       </c>
       <c r="B903" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="904">
@@ -78577,7 +78403,7 @@
         </is>
       </c>
       <c r="B904" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -78587,7 +78413,7 @@
         </is>
       </c>
       <c r="B905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -78597,7 +78423,7 @@
         </is>
       </c>
       <c r="B906" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="907">
@@ -78607,7 +78433,7 @@
         </is>
       </c>
       <c r="B907" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="908">
@@ -78617,7 +78443,7 @@
         </is>
       </c>
       <c r="B908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909">
@@ -78627,7 +78453,7 @@
         </is>
       </c>
       <c r="B909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910">
@@ -78637,7 +78463,7 @@
         </is>
       </c>
       <c r="B910" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="911">
@@ -78647,7 +78473,7 @@
         </is>
       </c>
       <c r="B911" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
@@ -78657,7 +78483,7 @@
         </is>
       </c>
       <c r="B912" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -78667,7 +78493,7 @@
         </is>
       </c>
       <c r="B913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914">
@@ -78677,7 +78503,7 @@
         </is>
       </c>
       <c r="B914" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="915">
@@ -78687,7 +78513,7 @@
         </is>
       </c>
       <c r="B915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916">
@@ -78697,7 +78523,7 @@
         </is>
       </c>
       <c r="B916" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="917">
@@ -78707,7 +78533,7 @@
         </is>
       </c>
       <c r="B917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918">
@@ -78716,9 +78542,7 @@
           <t>SS0418_q_0033_0002</t>
         </is>
       </c>
-      <c r="B918" t="n">
-        <v>0</v>
-      </c>
+      <c r="B918" t="inlineStr"/>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
@@ -78727,7 +78551,7 @@
         </is>
       </c>
       <c r="B919" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="920">
@@ -78737,7 +78561,7 @@
         </is>
       </c>
       <c r="B920" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="921">
@@ -78746,9 +78570,7 @@
           <t>SS0418_q_0092_0001</t>
         </is>
       </c>
-      <c r="B921" t="n">
-        <v>0</v>
-      </c>
+      <c r="B921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
@@ -78757,7 +78579,7 @@
         </is>
       </c>
       <c r="B922" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="923">
@@ -78766,9 +78588,7 @@
           <t>SS0418_q_0112_0002</t>
         </is>
       </c>
-      <c r="B923" t="n">
-        <v>0</v>
-      </c>
+      <c r="B923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
@@ -78777,7 +78597,7 @@
         </is>
       </c>
       <c r="B924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
@@ -78787,7 +78607,7 @@
         </is>
       </c>
       <c r="B925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926">
@@ -78797,7 +78617,7 @@
         </is>
       </c>
       <c r="B926" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="927">
@@ -78807,7 +78627,7 @@
         </is>
       </c>
       <c r="B927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -78817,7 +78637,7 @@
         </is>
       </c>
       <c r="B928" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="929">
@@ -78827,7 +78647,7 @@
         </is>
       </c>
       <c r="B929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930">
@@ -78837,7 +78657,7 @@
         </is>
       </c>
       <c r="B930" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -78847,7 +78667,7 @@
         </is>
       </c>
       <c r="B931" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="932">
@@ -78857,7 +78677,7 @@
         </is>
       </c>
       <c r="B932" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -78867,7 +78687,7 @@
         </is>
       </c>
       <c r="B933" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -78877,7 +78697,7 @@
         </is>
       </c>
       <c r="B934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935">
@@ -78887,7 +78707,7 @@
         </is>
       </c>
       <c r="B935" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -78897,7 +78717,7 @@
         </is>
       </c>
       <c r="B936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937">
@@ -78907,7 +78727,7 @@
         </is>
       </c>
       <c r="B937" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -78917,7 +78737,7 @@
         </is>
       </c>
       <c r="B938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939">
@@ -78926,9 +78746,7 @@
           <t>SS0421_q_0174_0001</t>
         </is>
       </c>
-      <c r="B939" t="n">
-        <v>0</v>
-      </c>
+      <c r="B939" t="inlineStr"/>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
@@ -78937,7 +78755,7 @@
         </is>
       </c>
       <c r="B940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -78947,7 +78765,7 @@
         </is>
       </c>
       <c r="B941" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -78956,9 +78774,7 @@
           <t>SS0421_q_0306_0002</t>
         </is>
       </c>
-      <c r="B942" t="n">
-        <v>0</v>
-      </c>
+      <c r="B942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
@@ -78967,7 +78783,7 @@
         </is>
       </c>
       <c r="B943" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="944">
@@ -78977,7 +78793,7 @@
         </is>
       </c>
       <c r="B944" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945">
@@ -78986,9 +78802,7 @@
           <t>SS0421_q_0316_0002</t>
         </is>
       </c>
-      <c r="B945" t="n">
-        <v>0</v>
-      </c>
+      <c r="B945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
@@ -78996,9 +78810,7 @@
           <t>SS0421_q_0320_0002</t>
         </is>
       </c>
-      <c r="B946" t="n">
-        <v>0</v>
-      </c>
+      <c r="B946" t="inlineStr"/>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
@@ -79007,7 +78819,7 @@
         </is>
       </c>
       <c r="B947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -79017,7 +78829,7 @@
         </is>
       </c>
       <c r="B948" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="949">
@@ -79027,7 +78839,7 @@
         </is>
       </c>
       <c r="B949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -79037,7 +78849,7 @@
         </is>
       </c>
       <c r="B950" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="951">
@@ -79047,7 +78859,7 @@
         </is>
       </c>
       <c r="B951" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -79057,7 +78869,7 @@
         </is>
       </c>
       <c r="B952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953">
@@ -79067,7 +78879,7 @@
         </is>
       </c>
       <c r="B953" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954">
@@ -79076,9 +78888,7 @@
           <t>SS0421_q_0627_0003</t>
         </is>
       </c>
-      <c r="B954" t="n">
-        <v>0</v>
-      </c>
+      <c r="B954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
@@ -79086,9 +78896,7 @@
           <t>SS0421_q_0669_0003</t>
         </is>
       </c>
-      <c r="B955" t="n">
-        <v>0</v>
-      </c>
+      <c r="B955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
@@ -79096,9 +78904,7 @@
           <t>SS0421_q_0708_0003</t>
         </is>
       </c>
-      <c r="B956" t="n">
-        <v>0</v>
-      </c>
+      <c r="B956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
@@ -79107,7 +78913,7 @@
         </is>
       </c>
       <c r="B957" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="958">
@@ -79117,7 +78923,7 @@
         </is>
       </c>
       <c r="B958" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="959">
@@ -79126,9 +78932,7 @@
           <t>SS0421_q_0723_0002</t>
         </is>
       </c>
-      <c r="B959" t="n">
-        <v>0</v>
-      </c>
+      <c r="B959" t="inlineStr"/>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
@@ -79137,7 +78941,7 @@
         </is>
       </c>
       <c r="B960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961">
@@ -79147,7 +78951,7 @@
         </is>
       </c>
       <c r="B961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962">
@@ -79157,7 +78961,7 @@
         </is>
       </c>
       <c r="B962" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="963">
@@ -79167,7 +78971,7 @@
         </is>
       </c>
       <c r="B963" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964">
@@ -79177,7 +78981,7 @@
         </is>
       </c>
       <c r="B964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -79186,9 +78990,7 @@
           <t>SS0421_q_0853_0002</t>
         </is>
       </c>
-      <c r="B965" t="n">
-        <v>0</v>
-      </c>
+      <c r="B965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
@@ -79197,7 +78999,7 @@
         </is>
       </c>
       <c r="B966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967">
@@ -79207,7 +79009,7 @@
         </is>
       </c>
       <c r="B967" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="968">
@@ -79217,7 +79019,7 @@
         </is>
       </c>
       <c r="B968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -79227,7 +79029,7 @@
         </is>
       </c>
       <c r="B969" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="970">
@@ -79237,7 +79039,7 @@
         </is>
       </c>
       <c r="B970" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971">
@@ -79247,7 +79049,7 @@
         </is>
       </c>
       <c r="B971" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="972">
@@ -79257,7 +79059,7 @@
         </is>
       </c>
       <c r="B972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973">
@@ -79267,7 +79069,7 @@
         </is>
       </c>
       <c r="B973" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
@@ -79277,7 +79079,7 @@
         </is>
       </c>
       <c r="B974" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="975">
@@ -79287,7 +79089,7 @@
         </is>
       </c>
       <c r="B975" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="976">
@@ -79297,7 +79099,7 @@
         </is>
       </c>
       <c r="B976" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="977">
@@ -79307,7 +79109,7 @@
         </is>
       </c>
       <c r="B977" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -79317,7 +79119,7 @@
         </is>
       </c>
       <c r="B978" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="979">
@@ -79327,7 +79129,7 @@
         </is>
       </c>
       <c r="B979" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980">
@@ -79337,7 +79139,7 @@
         </is>
       </c>
       <c r="B980" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="981">
@@ -79347,7 +79149,7 @@
         </is>
       </c>
       <c r="B981" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="982">
@@ -79357,7 +79159,7 @@
         </is>
       </c>
       <c r="B982" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="983">
@@ -79367,7 +79169,7 @@
         </is>
       </c>
       <c r="B983" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="984">
@@ -79377,7 +79179,7 @@
         </is>
       </c>
       <c r="B984" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="985">
@@ -79387,7 +79189,7 @@
         </is>
       </c>
       <c r="B985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986">
@@ -79397,7 +79199,7 @@
         </is>
       </c>
       <c r="B986" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987">
@@ -79407,7 +79209,7 @@
         </is>
       </c>
       <c r="B987" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="988">
@@ -79417,7 +79219,7 @@
         </is>
       </c>
       <c r="B988" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989">
@@ -79427,7 +79229,7 @@
         </is>
       </c>
       <c r="B989" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="990">
@@ -79437,7 +79239,7 @@
         </is>
       </c>
       <c r="B990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -79447,7 +79249,7 @@
         </is>
       </c>
       <c r="B991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992">
@@ -79457,7 +79259,7 @@
         </is>
       </c>
       <c r="B992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -79467,7 +79269,7 @@
         </is>
       </c>
       <c r="B993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994">
@@ -79477,7 +79279,7 @@
         </is>
       </c>
       <c r="B994" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="995">
@@ -79487,7 +79289,7 @@
         </is>
       </c>
       <c r="B995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996">
@@ -79497,7 +79299,7 @@
         </is>
       </c>
       <c r="B996" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997">
@@ -79507,7 +79309,7 @@
         </is>
       </c>
       <c r="B997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998">
@@ -79517,7 +79319,7 @@
         </is>
       </c>
       <c r="B998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -79527,7 +79329,7 @@
         </is>
       </c>
       <c r="B999" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1000">
@@ -79537,7 +79339,7 @@
         </is>
       </c>
       <c r="B1000" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1001">
@@ -79547,7 +79349,7 @@
         </is>
       </c>
       <c r="B1001" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -79588,7 +79390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6503884572697003</v>
       </c>
     </row>
   </sheetData>
@@ -79629,7 +79431,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6680497925311203</v>
       </c>
     </row>
     <row r="3">
@@ -79639,7 +79441,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.634453781512605</v>
       </c>
     </row>
     <row r="4">
@@ -79649,7 +79451,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5223880597014925</v>
       </c>
     </row>
     <row r="5">
@@ -79659,7 +79461,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
   </sheetData>
@@ -79771,7 +79573,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.7094017094017094</v>
       </c>
     </row>
     <row r="3">
@@ -79781,7 +79583,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.8269230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -79791,7 +79593,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
     <row r="5">
@@ -79801,7 +79603,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="6">
@@ -79811,7 +79613,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.6607142857142857</v>
       </c>
     </row>
     <row r="7">
@@ -79821,7 +79623,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -79831,7 +79633,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.6033057851239669</v>
       </c>
     </row>
     <row r="9">
@@ -79841,7 +79643,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.4492753623188406</v>
       </c>
     </row>
     <row r="10">
@@ -79851,7 +79653,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="11">
@@ -79861,7 +79663,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.7868852459016393</v>
       </c>
     </row>
     <row r="12">
@@ -79871,7 +79673,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.7884615384615384</v>
       </c>
     </row>
   </sheetData>
@@ -80063,7 +79865,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -80078,7 +79880,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -80093,7 +79895,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="5">
@@ -80108,7 +79910,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="6">
@@ -80123,7 +79925,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -80138,7 +79940,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="8">
@@ -80153,7 +79955,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="9">
@@ -80168,7 +79970,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="10">
@@ -80183,7 +79985,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="11">
@@ -80198,7 +80000,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
@@ -80213,7 +80015,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
@@ -80228,7 +80030,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="14">
@@ -80243,7 +80045,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="15">
@@ -80258,7 +80060,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="16">
@@ -80273,7 +80075,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="17">
@@ -80288,7 +80090,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="18">
@@ -80303,7 +80105,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -80318,7 +80120,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
@@ -80333,7 +80135,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -80348,7 +80150,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.5689655172413793</v>
       </c>
     </row>
     <row r="22">
@@ -80363,7 +80165,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.7627118644067796</v>
       </c>
     </row>
     <row r="23">
@@ -80378,7 +80180,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="24">
@@ -80393,7 +80195,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -80408,7 +80210,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="26">
@@ -80423,7 +80225,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.7586206896551724</v>
       </c>
     </row>
     <row r="27">
@@ -80438,7 +80240,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="28">
@@ -80453,7 +80255,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29">
@@ -80468,7 +80270,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="30">
@@ -80483,7 +80285,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
@@ -80498,7 +80300,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="32">
@@ -80513,7 +80315,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -80528,7 +80330,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -80543,7 +80345,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="35">
@@ -80558,7 +80360,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -80573,7 +80375,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37">
@@ -80588,7 +80390,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="38">
@@ -80603,7 +80405,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="39">
@@ -80618,7 +80420,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="40">
@@ -80633,7 +80435,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="41">
@@ -80648,7 +80450,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="42">
@@ -80663,7 +80465,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
   </sheetData>
